--- a/NTW-10/FNTW-10/files/ip-address-table.xlsx
+++ b/NTW-10/FNTW-10/files/ip-address-table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>ЦО:</t>
   </si>
@@ -523,7 +523,8 @@
   </si>
   <si>
     <t xml:space="preserve">mgmt2
-10.96.50.62/26</t>
+192.168.0.2
+192.168.0.6</t>
   </si>
   <si>
     <t xml:space="preserve">x/x.201
@@ -544,10 +545,15 @@
     <t>remote-sw</t>
   </si>
   <si>
-    <t>mgmt2</t>
+    <t xml:space="preserve">mgmt2
+10.96.50.1</t>
   </si>
   <si>
     <t>remote-ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgmt2
+dhcp</t>
   </si>
 </sst>
 </file>
@@ -556,9 +562,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -590,11 +596,11 @@
   </fills>
   <borders count="29">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
@@ -609,34 +615,34 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -646,7 +652,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
@@ -658,8 +664,8 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -671,8 +677,8 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -684,8 +690,8 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
@@ -700,7 +706,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -715,7 +721,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -730,7 +736,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -745,7 +751,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -760,7 +766,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
@@ -775,7 +781,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -790,7 +796,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -805,38 +811,38 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -848,66 +854,66 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -917,34 +923,34 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -954,13 +960,13 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1039,6 +1045,9 @@
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1054,9 +1063,6 @@
     <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1093,6 +1099,9 @@
     <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1100,7 +1109,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,10 +1181,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Angsana New"/>
@@ -1204,10 +1215,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Cordia New"/>
@@ -1836,7 +1847,7 @@
       <c r="E8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="31" t="s">
@@ -1871,7 +1882,7 @@
       <c r="F9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="33" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="19" t="s">
@@ -1916,26 +1927,26 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="36" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -1952,10 +1963,10 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -1964,7 +1975,7 @@
       <c r="E13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="20" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="39"/>
@@ -1988,10 +1999,10 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -2000,7 +2011,7 @@
       <c r="E14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="39"/>
@@ -2022,7 +2033,7 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -2052,7 +2063,7 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -2067,7 +2078,7 @@
       <c r="F16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="40"/>
       <c r="K16" s="19" t="s">
         <v>82</v>
@@ -2083,7 +2094,7 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="20" t="s">
@@ -2119,7 +2130,7 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -2156,7 +2167,7 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -2185,7 +2196,7 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -2214,7 +2225,7 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -2243,10 +2254,10 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="47"/>
@@ -2272,7 +2283,7 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -2301,15 +2312,13 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" ht="30" customHeight="1">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>132</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>124</v>
-      </c>
+      <c r="D24" s="38"/>
       <c r="E24" s="47"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -2332,7 +2341,7 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -2361,7 +2370,7 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" ht="30" customHeight="1">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
         <v>143</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -2393,19 +2402,19 @@
       <c r="R26" s="50"/>
     </row>
     <row r="27" ht="30" customHeight="1">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="38" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="47"/>
@@ -2431,10 +2440,10 @@
       <c r="R27" s="50"/>
     </row>
     <row r="28" ht="30" customHeight="1">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="38" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="47"/>
@@ -2456,14 +2465,14 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" ht="30" customHeight="1">
-      <c r="B29" s="36" t="s">
+    <row r="29" ht="42.75" customHeight="1">
+      <c r="B29" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="52" t="s">
         <v>155</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -2476,24 +2485,24 @@
         <v>158</v>
       </c>
       <c r="I29" s="40"/>
-      <c r="K29" s="52">
+      <c r="K29" s="53">
         <v>65200</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="32"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="33"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="50"/>
     </row>
     <row r="30" ht="30" customHeight="1">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="52" t="s">
         <v>161</v>
       </c>
       <c r="D30" s="47"/>
@@ -2504,19 +2513,19 @@
       <c r="I30" s="49"/>
       <c r="R30" s="50"/>
     </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="54" t="s">
+    <row r="31" ht="27" customHeight="1">
+      <c r="B31" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
+      <c r="C31" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
       <c r="R31" s="50"/>
     </row>
     <row r="32">
@@ -2903,13 +2912,13 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="11" id="{004300A4-00F2-44BE-A12A-00E7002F00C9}">
+          <x14:cfRule type="duplicateValues" priority="11" id="{00780017-00D6-48D5-8A1F-00A8007800C4}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2925,7 +2934,7 @@
           <xm:sqref>K3:K29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="10" id="{00F400BA-00CB-4551-94E9-00A3005F0002}">
+          <x14:cfRule type="duplicateValues" priority="10" id="{009D0069-00C6-4EE5-A7D0-00060050001B}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2941,7 +2950,7 @@
           <xm:sqref>B33:B79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="1" id="{00EB00A7-00C1-4C6A-9AC0-009D00D800D4}">
+          <x14:cfRule type="duplicateValues" priority="1" id="{001F001E-0030-4BED-86E8-0003002500D4}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
